--- a/Pier reactions Initial.xlsx
+++ b/Pier reactions Initial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Vicente\Programacion\pycode\Projects\Minor_Project_PFSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53AAECB-E1C5-49DE-9C37-CA412C79606A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CE66F9-C591-40E6-A1F8-720B439722B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78183721-F859-41BE-89A9-12FE050FF9D3}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>TABLE:  Joint Reactions</t>
   </si>
@@ -190,13 +190,28 @@
   </si>
   <si>
     <t>Envelope</t>
+  </si>
+  <si>
+    <t>Max F2</t>
+  </si>
+  <si>
+    <t>Max F3</t>
+  </si>
+  <si>
+    <t>Max M1</t>
+  </si>
+  <si>
+    <t>Max M2</t>
+  </si>
+  <si>
+    <t>Max M3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +223,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -617,11 +638,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2533BDE-8AB8-4EC4-988D-265C8DB7D9B7}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,22 +752,183 @@
         <v>100</v>
       </c>
       <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>100</v>
       </c>
-      <c r="G4">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>100</v>
       </c>
-      <c r="H4">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>100</v>
       </c>
-      <c r="I4">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>100</v>
       </c>
-      <c r="J4">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
